--- a/www/mesures/3.0.0/ValueSet-method-glucose-vs.xlsx
+++ b/www/mesures/3.0.0/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:26:47+01:00</t>
+    <t>2023-03-22T16:32:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
